--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H2">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J2">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>1.128341065289728</v>
+        <v>18.25286051305789</v>
       </c>
       <c r="R2">
-        <v>1.128341065289728</v>
+        <v>164.275744617521</v>
       </c>
       <c r="S2">
-        <v>6.462369353236577E-05</v>
+        <v>0.0008787628321123914</v>
       </c>
       <c r="T2">
-        <v>6.462369353236577E-05</v>
+        <v>0.0008787628321123917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H3">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J3">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>6.60042843945031</v>
+        <v>21.53366783733422</v>
       </c>
       <c r="R3">
-        <v>6.60042843945031</v>
+        <v>193.803010536008</v>
       </c>
       <c r="S3">
-        <v>0.0003780275997876785</v>
+        <v>0.001036713501479182</v>
       </c>
       <c r="T3">
-        <v>0.0003780275997876785</v>
+        <v>0.001036713501479182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H4">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I4">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J4">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>0.5478876666431521</v>
+        <v>2.756171971918333</v>
       </c>
       <c r="R4">
-        <v>0.5478876666431521</v>
+        <v>24.805547747265</v>
       </c>
       <c r="S4">
-        <v>3.137927506894255E-05</v>
+        <v>0.0001326927078689426</v>
       </c>
       <c r="T4">
-        <v>3.137927506894255E-05</v>
+        <v>0.0001326927078689427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H5">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I5">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J5">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>1.082655908610225</v>
+        <v>4.105153714725222</v>
       </c>
       <c r="R5">
-        <v>1.082655908610225</v>
+        <v>36.946383432527</v>
       </c>
       <c r="S5">
-        <v>6.200715882042899E-05</v>
+        <v>0.0001976378717203206</v>
       </c>
       <c r="T5">
-        <v>6.200715882042899E-05</v>
+        <v>0.0001976378717203207</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H6">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I6">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J6">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>29.46313584349649</v>
+        <v>98.50793386645933</v>
       </c>
       <c r="R6">
-        <v>29.46313584349649</v>
+        <v>886.5714047981339</v>
       </c>
       <c r="S6">
-        <v>0.00168744781150341</v>
+        <v>0.004742550401242713</v>
       </c>
       <c r="T6">
-        <v>0.00168744781150341</v>
+        <v>0.004742550401242714</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.67511079338898</v>
+        <v>8.723857666666666</v>
       </c>
       <c r="H7">
-        <v>2.67511079338898</v>
+        <v>26.171573</v>
       </c>
       <c r="I7">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951201</v>
       </c>
       <c r="J7">
-        <v>0.002256730769744214</v>
+        <v>0.007098432040951203</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>0.5804675862262858</v>
+        <v>2.286371880900445</v>
       </c>
       <c r="R7">
-        <v>0.5804675862262858</v>
+        <v>20.577346928104</v>
       </c>
       <c r="S7">
-        <v>3.324523103138812E-05</v>
+        <v>0.0001100747265276512</v>
       </c>
       <c r="T7">
-        <v>3.324523103138812E-05</v>
+        <v>0.0001100747265276512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H8">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I8">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J8">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>446.0843007986497</v>
+        <v>2228.292015692439</v>
       </c>
       <c r="R8">
-        <v>446.0843007986497</v>
+        <v>20054.62814123195</v>
       </c>
       <c r="S8">
-        <v>0.02554867143562611</v>
+        <v>0.1072785386752113</v>
       </c>
       <c r="T8">
-        <v>0.02554867143562611</v>
+        <v>0.1072785386752113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H9">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I9">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J9">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>2609.448149995041</v>
+        <v>2628.809883041522</v>
       </c>
       <c r="R9">
-        <v>2609.448149995041</v>
+        <v>23659.2889473737</v>
       </c>
       <c r="S9">
-        <v>0.1494514227314576</v>
+        <v>0.126561007588591</v>
       </c>
       <c r="T9">
-        <v>0.1494514227314576</v>
+        <v>0.126561007588591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H10">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I10">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J10">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>216.6047963768453</v>
+        <v>336.4708777841867</v>
       </c>
       <c r="R10">
-        <v>216.6047963768453</v>
+        <v>3028.23790005768</v>
       </c>
       <c r="S10">
-        <v>0.01240564791028276</v>
+        <v>0.01619900076886302</v>
       </c>
       <c r="T10">
-        <v>0.01240564791028276</v>
+        <v>0.01619900076886302</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H11">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I11">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J11">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>428.022890289745</v>
+        <v>501.1532980909138</v>
       </c>
       <c r="R11">
-        <v>428.022890289745</v>
+        <v>4510.379682818225</v>
       </c>
       <c r="S11">
-        <v>0.02451423681882875</v>
+        <v>0.02412744518799032</v>
       </c>
       <c r="T11">
-        <v>0.02451423681882875</v>
+        <v>0.02412744518799032</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H12">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I12">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J12">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>11648.11133476471</v>
+        <v>12025.75576359438</v>
       </c>
       <c r="R12">
-        <v>11648.11133476471</v>
+        <v>108231.8018723494</v>
       </c>
       <c r="S12">
-        <v>0.6671245071944856</v>
+        <v>0.5789660850992664</v>
       </c>
       <c r="T12">
-        <v>0.6671245071944856</v>
+        <v>0.5789660850992665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1057.59239341469</v>
+        <v>1065.000325333333</v>
       </c>
       <c r="H13">
-        <v>1057.59239341469</v>
+        <v>3195.000976</v>
       </c>
       <c r="I13">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346957</v>
       </c>
       <c r="J13">
-        <v>0.8921878308609239</v>
+        <v>0.8665698962346958</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>229.4851134143065</v>
+        <v>279.1181252642276</v>
       </c>
       <c r="R13">
-        <v>229.4851134143065</v>
+        <v>2512.063127378048</v>
       </c>
       <c r="S13">
-        <v>0.01314334477024316</v>
+        <v>0.01343781891477363</v>
       </c>
       <c r="T13">
-        <v>0.01314334477024316</v>
+        <v>0.01343781891477363</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H14">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I14">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J14">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>0.2756165701986613</v>
+        <v>1.768134179560778</v>
       </c>
       <c r="R14">
-        <v>0.2756165701986613</v>
+        <v>15.913207616047</v>
       </c>
       <c r="S14">
-        <v>1.578544051340237E-05</v>
+        <v>8.512477252943445E-05</v>
       </c>
       <c r="T14">
-        <v>1.578544051340237E-05</v>
+        <v>8.512477252943446E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H15">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I15">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J15">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>1.612267340332843</v>
+        <v>2.085942315028444</v>
       </c>
       <c r="R15">
-        <v>1.612267340332843</v>
+        <v>18.773480835256</v>
       </c>
       <c r="S15">
-        <v>9.233969559297989E-05</v>
+        <v>0.0001004252771814112</v>
       </c>
       <c r="T15">
-        <v>9.233969559297989E-05</v>
+        <v>0.0001004252771814112</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H16">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I16">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J16">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>0.1338309170689968</v>
+        <v>0.2669872957616666</v>
       </c>
       <c r="R16">
-        <v>0.1338309170689968</v>
+        <v>2.402885661855</v>
       </c>
       <c r="S16">
-        <v>7.664923697163821E-06</v>
+        <v>1.285379417618994E-05</v>
       </c>
       <c r="T16">
-        <v>7.664923697163821E-06</v>
+        <v>1.285379417618994E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H17">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I17">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J17">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>0.2644571906632193</v>
+        <v>0.3976616481654444</v>
       </c>
       <c r="R17">
-        <v>0.2644571906632193</v>
+        <v>3.578954833489</v>
       </c>
       <c r="S17">
-        <v>1.514630723597922E-05</v>
+        <v>1.914495954835981E-05</v>
       </c>
       <c r="T17">
-        <v>1.514630723597922E-05</v>
+        <v>1.914495954835981E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H18">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I18">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J18">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>7.19687397568625</v>
+        <v>9.542353358948667</v>
       </c>
       <c r="R18">
-        <v>7.19687397568625</v>
+        <v>85.88118023053799</v>
       </c>
       <c r="S18">
-        <v>0.0004121879390044044</v>
+        <v>0.0004594055521723873</v>
       </c>
       <c r="T18">
-        <v>0.0004121879390044044</v>
+        <v>0.0004594055521723873</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.653441485430622</v>
+        <v>0.8450703333333333</v>
       </c>
       <c r="H19">
-        <v>0.653441485430622</v>
+        <v>2.535211</v>
       </c>
       <c r="I19">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="J19">
-        <v>0.0005512450213437673</v>
+        <v>0.0006876171712327699</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>0.1417891186882437</v>
+        <v>0.2214782864808889</v>
       </c>
       <c r="R19">
-        <v>0.1417891186882437</v>
+        <v>1.993304578328</v>
       </c>
       <c r="S19">
-        <v>8.120715299837552E-06</v>
+        <v>1.06628156249872E-05</v>
       </c>
       <c r="T19">
-        <v>8.120715299837552E-06</v>
+        <v>1.06628156249872E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H20">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I20">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J20">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>0.6997924436758646</v>
+        <v>3.725811213890556</v>
       </c>
       <c r="R20">
-        <v>0.6997924436758646</v>
+        <v>33.53230092501501</v>
       </c>
       <c r="S20">
-        <v>4.007934640290903E-05</v>
+        <v>0.0001793748663061505</v>
       </c>
       <c r="T20">
-        <v>4.007934640290903E-05</v>
+        <v>0.0001793748663061505</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H21">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I21">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J21">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>4.093558312321627</v>
+        <v>4.39549631396889</v>
       </c>
       <c r="R21">
-        <v>4.093558312321627</v>
+        <v>39.55946682572</v>
       </c>
       <c r="S21">
-        <v>0.0002344511477692378</v>
+        <v>0.0002116160799366006</v>
       </c>
       <c r="T21">
-        <v>0.0002344511477692378</v>
+        <v>0.0002116160799366006</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H22">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I22">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J22">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>0.3397976559522187</v>
+        <v>0.5625954591083333</v>
       </c>
       <c r="R22">
-        <v>0.3397976559522187</v>
+        <v>5.063359131975</v>
       </c>
       <c r="S22">
-        <v>1.946129610698336E-05</v>
+        <v>2.708550687854819E-05</v>
       </c>
       <c r="T22">
-        <v>1.946129610698336E-05</v>
+        <v>2.708550687854819E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H23">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I23">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J23">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>0.6714586991938671</v>
+        <v>0.837952371033889</v>
       </c>
       <c r="R23">
-        <v>0.6714586991938671</v>
+        <v>7.541571339305</v>
       </c>
       <c r="S23">
-        <v>3.845658243875357E-05</v>
+        <v>4.034224653271465E-05</v>
       </c>
       <c r="T23">
-        <v>3.845658243875357E-05</v>
+        <v>4.034224653271466E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H24">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I24">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J24">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>18.27291451541754</v>
+        <v>20.10764090342333</v>
       </c>
       <c r="R24">
-        <v>18.27291451541754</v>
+        <v>180.96876813081</v>
       </c>
       <c r="S24">
-        <v>0.001046548126194669</v>
+        <v>0.0009680590861224437</v>
       </c>
       <c r="T24">
-        <v>0.001046548126194669</v>
+        <v>0.0009680590861224437</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.65909260665672</v>
+        <v>1.780731666666667</v>
       </c>
       <c r="H25">
-        <v>1.65909260665672</v>
+        <v>5.342195</v>
       </c>
       <c r="I25">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="J25">
-        <v>0.001399615053159756</v>
+        <v>0.001448946464051256</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N25">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q25">
-        <v>0.3600035868016733</v>
+        <v>0.4666989038177778</v>
       </c>
       <c r="R25">
-        <v>0.3600035868016733</v>
+        <v>4.20029013436</v>
       </c>
       <c r="S25">
-        <v>2.061855424720362E-05</v>
+        <v>2.246867827479784E-05</v>
       </c>
       <c r="T25">
-        <v>2.061855424720362E-05</v>
+        <v>2.246867827479784E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H26">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I26">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J26">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N26">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q26">
-        <v>0.04842880196975059</v>
+        <v>0.5248396754934445</v>
       </c>
       <c r="R26">
-        <v>0.04842880196975059</v>
+        <v>4.723557079441001</v>
       </c>
       <c r="S26">
-        <v>2.773672033135817E-06</v>
+        <v>2.526779839859203E-05</v>
       </c>
       <c r="T26">
-        <v>2.773672033135817E-06</v>
+        <v>2.526779839859203E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H27">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I27">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J27">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N27">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q27">
-        <v>0.2832927486580231</v>
+        <v>0.6191754564631111</v>
       </c>
       <c r="R27">
-        <v>0.2832927486580231</v>
+        <v>5.572579108168</v>
       </c>
       <c r="S27">
-        <v>1.622507974972687E-05</v>
+        <v>2.980948533008059E-05</v>
       </c>
       <c r="T27">
-        <v>1.622507974972687E-05</v>
+        <v>2.980948533008059E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H28">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I28">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J28">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N28">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q28">
-        <v>0.02351553455401079</v>
+        <v>0.07925050445166666</v>
       </c>
       <c r="R28">
-        <v>0.02351553455401079</v>
+        <v>0.7132545400649999</v>
       </c>
       <c r="S28">
-        <v>1.346809705873766E-06</v>
+        <v>3.815423762673303E-06</v>
       </c>
       <c r="T28">
-        <v>1.346809705873766E-06</v>
+        <v>3.815423762673303E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H29">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I29">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J29">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N29">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q29">
-        <v>0.04646797870996738</v>
+        <v>0.1180388981741111</v>
       </c>
       <c r="R29">
-        <v>0.04646797870996738</v>
+        <v>1.062350083567</v>
       </c>
       <c r="S29">
-        <v>2.661369427736246E-06</v>
+        <v>5.682846060468282E-06</v>
       </c>
       <c r="T29">
-        <v>2.661369427736246E-06</v>
+        <v>5.682846060468283E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H30">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I30">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J30">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N30">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q30">
-        <v>1.264568325186473</v>
+        <v>2.832480531312667</v>
       </c>
       <c r="R30">
-        <v>1.264568325186473</v>
+        <v>25.492324781814</v>
       </c>
       <c r="S30">
-        <v>7.24258634304016E-05</v>
+        <v>0.0001363664950936798</v>
       </c>
       <c r="T30">
-        <v>7.24258634304016E-05</v>
+        <v>0.0001363664950936798</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.114816711759854</v>
+        <v>0.2508443333333333</v>
       </c>
       <c r="H31">
-        <v>0.114816711759854</v>
+        <v>0.752533</v>
       </c>
       <c r="I31">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="J31">
-        <v>9.685969154984395E-05</v>
+        <v>0.0002041071187839237</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N31">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q31">
-        <v>0.02491387635173384</v>
+        <v>0.06574195179822223</v>
       </c>
       <c r="R31">
-        <v>0.02491387635173384</v>
+        <v>0.591677566184</v>
       </c>
       <c r="S31">
-        <v>1.426897202969645E-06</v>
+        <v>3.165070138429698E-06</v>
       </c>
       <c r="T31">
-        <v>1.426897202969645E-06</v>
+        <v>3.165070138429698E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H32">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I32">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J32">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N32">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q32">
-        <v>51.75274385423045</v>
+        <v>318.8296278007007</v>
       </c>
       <c r="R32">
-        <v>51.75274385423045</v>
+        <v>2869.466650206306</v>
       </c>
       <c r="S32">
-        <v>0.002964044792109067</v>
+        <v>0.01534968321743592</v>
       </c>
       <c r="T32">
-        <v>0.002964044792109067</v>
+        <v>0.01534968321743592</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H33">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I33">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J33">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N33">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q33">
-        <v>302.7367281605926</v>
+        <v>376.1367319302987</v>
       </c>
       <c r="R33">
-        <v>302.7367281605926</v>
+        <v>3385.230587372688</v>
       </c>
       <c r="S33">
-        <v>0.01733869850479807</v>
+        <v>0.01810866738263341</v>
       </c>
       <c r="T33">
-        <v>0.01733869850479807</v>
+        <v>0.01810866738263341</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H34">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I34">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J34">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N34">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q34">
-        <v>25.12953835052907</v>
+        <v>48.14309972581</v>
       </c>
       <c r="R34">
-        <v>25.12953835052907</v>
+        <v>433.2878975322899</v>
       </c>
       <c r="S34">
-        <v>0.001439248853853806</v>
+        <v>0.002317793785333351</v>
       </c>
       <c r="T34">
-        <v>0.001439248853853806</v>
+        <v>0.002317793785333351</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H35">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I35">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J35">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N35">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q35">
-        <v>49.65733823237834</v>
+        <v>71.70627475042467</v>
       </c>
       <c r="R35">
-        <v>49.65733823237834</v>
+        <v>645.356472753822</v>
       </c>
       <c r="S35">
-        <v>0.002844034225359202</v>
+        <v>0.003452215560121867</v>
       </c>
       <c r="T35">
-        <v>0.002844034225359202</v>
+        <v>0.003452215560121868</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H36">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I36">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J36">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N36">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q36">
-        <v>1351.362783255028</v>
+        <v>1720.675390445836</v>
       </c>
       <c r="R36">
-        <v>1351.362783255028</v>
+        <v>15486.07851401252</v>
       </c>
       <c r="S36">
-        <v>0.07739685901947893</v>
+        <v>0.0828399240860118</v>
       </c>
       <c r="T36">
-        <v>0.07739685901947893</v>
+        <v>0.08283992408601182</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>122.697230412684</v>
+        <v>152.382926</v>
       </c>
       <c r="H37">
-        <v>122.697230412684</v>
+        <v>457.148778</v>
       </c>
       <c r="I37">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="J37">
-        <v>0.1035077186032785</v>
+        <v>0.1239910009702851</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N37">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q37">
-        <v>26.62385623440792</v>
+        <v>39.93692360054933</v>
       </c>
       <c r="R37">
-        <v>26.62385623440792</v>
+        <v>359.432312404944</v>
       </c>
       <c r="S37">
-        <v>0.001524833207679414</v>
+        <v>0.001922716938748769</v>
       </c>
       <c r="T37">
-        <v>0.001524833207679414</v>
+        <v>0.001922716938748769</v>
       </c>
     </row>
   </sheetData>
